--- a/pre/cash_train.xlsx
+++ b/pre/cash_train.xlsx
@@ -3327,7 +3327,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3585,11 +3585,8 @@
       <c r="L40">
         <v>813</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3623,11 +3620,8 @@
       <c r="L41">
         <v>811</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3661,11 +3655,8 @@
       <c r="L42">
         <v>811</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3699,11 +3690,8 @@
       <c r="L43">
         <v>811</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3737,11 +3725,8 @@
       <c r="L44">
         <v>811</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3775,11 +3760,8 @@
       <c r="L45">
         <v>811</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3813,11 +3795,8 @@
       <c r="L46">
         <v>811</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3851,11 +3830,8 @@
       <c r="L47">
         <v>830</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3889,11 +3865,8 @@
       <c r="L48">
         <v>811</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3927,11 +3900,8 @@
       <c r="L49">
         <v>811</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3965,11 +3935,8 @@
       <c r="L50">
         <v>811</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4003,11 +3970,8 @@
       <c r="L51">
         <v>811</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4041,11 +4005,8 @@
       <c r="L52">
         <v>811</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4079,11 +4040,8 @@
       <c r="L53">
         <v>811</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4117,11 +4075,8 @@
       <c r="L54">
         <v>811</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4155,11 +4110,8 @@
       <c r="L55">
         <v>811</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4193,11 +4145,8 @@
       <c r="L56">
         <v>811</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4231,11 +4180,8 @@
       <c r="L57">
         <v>811</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4269,11 +4215,8 @@
       <c r="L58">
         <v>811</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4307,11 +4250,8 @@
       <c r="L59">
         <v>811</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4345,11 +4285,8 @@
       <c r="L60">
         <v>811</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4383,11 +4320,8 @@
       <c r="L61">
         <v>146</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4421,11 +4355,8 @@
       <c r="L62">
         <v>830</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4459,11 +4390,8 @@
       <c r="L63">
         <v>830</v>
       </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4497,11 +4425,8 @@
       <c r="L64">
         <v>811</v>
       </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4535,11 +4460,8 @@
       <c r="L65">
         <v>811</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4573,11 +4495,8 @@
       <c r="L66">
         <v>811</v>
       </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4611,11 +4530,8 @@
       <c r="L67">
         <v>811</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4649,11 +4565,8 @@
       <c r="L68">
         <v>811</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4687,11 +4600,8 @@
       <c r="L69">
         <v>811</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4725,11 +4635,8 @@
       <c r="L70">
         <v>811</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4763,11 +4670,8 @@
       <c r="L71">
         <v>146</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4801,11 +4705,8 @@
       <c r="L72">
         <v>811</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4839,11 +4740,8 @@
       <c r="L73">
         <v>811</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4877,11 +4775,8 @@
       <c r="L74">
         <v>811</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4915,11 +4810,8 @@
       <c r="L75">
         <v>811</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4953,11 +4845,8 @@
       <c r="L76">
         <v>811</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4991,11 +4880,8 @@
       <c r="L77">
         <v>811</v>
       </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5029,11 +4915,8 @@
       <c r="L78">
         <v>811</v>
       </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5067,11 +4950,8 @@
       <c r="L79">
         <v>811</v>
       </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5105,11 +4985,8 @@
       <c r="L80">
         <v>811</v>
       </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5143,11 +5020,8 @@
       <c r="L81">
         <v>811</v>
       </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5181,11 +5055,8 @@
       <c r="L82">
         <v>811</v>
       </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5219,11 +5090,8 @@
       <c r="L83">
         <v>811</v>
       </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5257,11 +5125,8 @@
       <c r="L84">
         <v>811</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5295,11 +5160,8 @@
       <c r="L85">
         <v>811</v>
       </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5333,11 +5195,8 @@
       <c r="L86">
         <v>811</v>
       </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5371,11 +5230,8 @@
       <c r="L87">
         <v>830</v>
       </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5409,11 +5265,8 @@
       <c r="L88">
         <v>811</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5447,11 +5300,8 @@
       <c r="L89">
         <v>811</v>
       </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5485,11 +5335,8 @@
       <c r="L90">
         <v>811</v>
       </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5523,11 +5370,8 @@
       <c r="L91">
         <v>813</v>
       </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5561,11 +5405,8 @@
       <c r="L92">
         <v>811</v>
       </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5599,11 +5440,8 @@
       <c r="L93">
         <v>811</v>
       </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5637,11 +5475,8 @@
       <c r="L94">
         <v>811</v>
       </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5675,11 +5510,8 @@
       <c r="L95">
         <v>146</v>
       </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5713,11 +5545,8 @@
       <c r="L96">
         <v>146</v>
       </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5751,11 +5580,8 @@
       <c r="L97">
         <v>811</v>
       </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5789,11 +5615,8 @@
       <c r="L98">
         <v>811</v>
       </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5827,11 +5650,8 @@
       <c r="L99">
         <v>811</v>
       </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5865,11 +5685,8 @@
       <c r="L100">
         <v>811</v>
       </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5903,11 +5720,8 @@
       <c r="L101">
         <v>811</v>
       </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5941,11 +5755,8 @@
       <c r="L102">
         <v>811</v>
       </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5979,11 +5790,8 @@
       <c r="L103">
         <v>811</v>
       </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6017,11 +5825,8 @@
       <c r="L104">
         <v>830</v>
       </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6055,11 +5860,8 @@
       <c r="L105">
         <v>811</v>
       </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6093,11 +5895,8 @@
       <c r="L106">
         <v>811</v>
       </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6131,11 +5930,8 @@
       <c r="L107">
         <v>811</v>
       </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6169,11 +5965,8 @@
       <c r="L108">
         <v>811</v>
       </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6207,11 +6000,8 @@
       <c r="L109">
         <v>811</v>
       </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6245,11 +6035,8 @@
       <c r="L110">
         <v>811</v>
       </c>
-      <c r="M110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6283,11 +6070,8 @@
       <c r="L111">
         <v>811</v>
       </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6320,9 +6104,6 @@
       </c>
       <c r="L112">
         <v>811</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -6394,9 +6175,6 @@
       <c r="L114">
         <v>811</v>
       </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1">
@@ -6432,9 +6210,6 @@
       <c r="L115">
         <v>811</v>
       </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1">
@@ -6470,9 +6245,6 @@
       <c r="L116">
         <v>811</v>
       </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1">
@@ -6508,9 +6280,6 @@
       <c r="L117">
         <v>811</v>
       </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1">
@@ -6546,9 +6315,6 @@
       <c r="L118">
         <v>811</v>
       </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1">
@@ -6584,9 +6350,6 @@
       <c r="L119">
         <v>811</v>
       </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1">
@@ -6622,9 +6385,6 @@
       <c r="L120">
         <v>811</v>
       </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1">
@@ -6660,9 +6420,6 @@
       <c r="L121">
         <v>811</v>
       </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1">
@@ -6698,9 +6455,6 @@
       <c r="L122">
         <v>811</v>
       </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1">
@@ -6736,9 +6490,6 @@
       <c r="L123">
         <v>811</v>
       </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1">
@@ -6774,9 +6525,6 @@
       <c r="L124">
         <v>811</v>
       </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1">
@@ -6812,9 +6560,6 @@
       <c r="L125">
         <v>811</v>
       </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1">
@@ -6850,9 +6595,6 @@
       <c r="L126">
         <v>811</v>
       </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1">
@@ -6888,9 +6630,6 @@
       <c r="L127">
         <v>811</v>
       </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1">
@@ -6926,11 +6665,8 @@
       <c r="L128">
         <v>811</v>
       </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6964,11 +6700,8 @@
       <c r="L129">
         <v>811</v>
       </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7002,11 +6735,8 @@
       <c r="L130">
         <v>811</v>
       </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7040,11 +6770,8 @@
       <c r="L131">
         <v>811</v>
       </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7078,11 +6805,8 @@
       <c r="L132">
         <v>811</v>
       </c>
-      <c r="M132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7116,11 +6840,8 @@
       <c r="L133">
         <v>811</v>
       </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7154,11 +6875,8 @@
       <c r="L134">
         <v>811</v>
       </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7192,11 +6910,8 @@
       <c r="L135">
         <v>811</v>
       </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7230,11 +6945,8 @@
       <c r="L136">
         <v>811</v>
       </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7268,11 +6980,8 @@
       <c r="L137">
         <v>811</v>
       </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7306,11 +7015,8 @@
       <c r="L138">
         <v>811</v>
       </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7344,11 +7050,8 @@
       <c r="L139">
         <v>811</v>
       </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7382,11 +7085,8 @@
       <c r="L140">
         <v>811</v>
       </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7420,11 +7120,8 @@
       <c r="L141">
         <v>811</v>
       </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7458,11 +7155,8 @@
       <c r="L142">
         <v>830</v>
       </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7496,11 +7190,8 @@
       <c r="L143">
         <v>811</v>
       </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7533,9 +7224,6 @@
       </c>
       <c r="L144">
         <v>811</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7572,9 +7260,6 @@
       <c r="L145">
         <v>811</v>
       </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1">
@@ -7610,9 +7295,6 @@
       <c r="L146">
         <v>811</v>
       </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1">
@@ -7648,9 +7330,6 @@
       <c r="L147">
         <v>811</v>
       </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1">
@@ -7686,9 +7365,6 @@
       <c r="L148">
         <v>811</v>
       </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1">
@@ -7864,9 +7540,6 @@
       <c r="L153">
         <v>811</v>
       </c>
-      <c r="M153">
-        <v>0</v>
-      </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1">
@@ -7902,9 +7575,6 @@
       <c r="L154">
         <v>811</v>
       </c>
-      <c r="M154">
-        <v>0</v>
-      </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1">
@@ -7940,9 +7610,6 @@
       <c r="L155">
         <v>811</v>
       </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1">
@@ -7978,9 +7645,6 @@
       <c r="L156">
         <v>811</v>
       </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1">
@@ -8051,9 +7715,6 @@
       <c r="L158">
         <v>811</v>
       </c>
-      <c r="M158">
-        <v>0</v>
-      </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1">
@@ -8089,9 +7750,6 @@
       <c r="L159">
         <v>811</v>
       </c>
-      <c r="M159">
-        <v>1</v>
-      </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1">
@@ -8127,9 +7785,6 @@
       <c r="L160">
         <v>811</v>
       </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1">
@@ -8165,9 +7820,6 @@
       <c r="L161">
         <v>811</v>
       </c>
-      <c r="M161">
-        <v>0</v>
-      </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1">
@@ -8203,9 +7855,6 @@
       <c r="L162">
         <v>811</v>
       </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1">
@@ -8241,9 +7890,6 @@
       <c r="L163">
         <v>811</v>
       </c>
-      <c r="M163">
-        <v>0</v>
-      </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1">
@@ -8279,9 +7925,6 @@
       <c r="L164">
         <v>811</v>
       </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1">
@@ -8317,9 +7960,6 @@
       <c r="L165">
         <v>811</v>
       </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1">
@@ -8355,9 +7995,6 @@
       <c r="L166">
         <v>811</v>
       </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1">
@@ -8393,9 +8030,6 @@
       <c r="L167">
         <v>811</v>
       </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1">
@@ -8431,9 +8065,6 @@
       <c r="L168">
         <v>811</v>
       </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1">
@@ -8469,9 +8100,6 @@
       <c r="L169">
         <v>811</v>
       </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1">
@@ -8507,9 +8135,6 @@
       <c r="L170">
         <v>811</v>
       </c>
-      <c r="M170">
-        <v>0</v>
-      </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1">
@@ -8615,9 +8240,6 @@
       <c r="L173">
         <v>811</v>
       </c>
-      <c r="M173">
-        <v>0</v>
-      </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1">
@@ -8653,9 +8275,6 @@
       <c r="L174">
         <v>811</v>
       </c>
-      <c r="M174">
-        <v>0</v>
-      </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1">
@@ -8761,9 +8380,6 @@
       <c r="L177">
         <v>812</v>
       </c>
-      <c r="M177">
-        <v>0</v>
-      </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1">
@@ -8799,9 +8415,6 @@
       <c r="L178">
         <v>811</v>
       </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1">
@@ -8872,9 +8485,6 @@
       <c r="L180">
         <v>811</v>
       </c>
-      <c r="M180">
-        <v>0</v>
-      </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1">
@@ -8910,9 +8520,6 @@
       <c r="L181">
         <v>811</v>
       </c>
-      <c r="M181">
-        <v>0</v>
-      </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1">
@@ -8983,9 +8590,6 @@
       <c r="L183">
         <v>811</v>
       </c>
-      <c r="M183">
-        <v>0</v>
-      </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1">
@@ -9021,9 +8625,6 @@
       <c r="L184">
         <v>811</v>
       </c>
-      <c r="M184">
-        <v>0</v>
-      </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1">
@@ -9059,9 +8660,6 @@
       <c r="L185">
         <v>811</v>
       </c>
-      <c r="M185">
-        <v>0</v>
-      </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1">
@@ -9097,9 +8695,6 @@
       <c r="L186">
         <v>811</v>
       </c>
-      <c r="M186">
-        <v>0</v>
-      </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1">
@@ -9135,9 +8730,6 @@
       <c r="L187">
         <v>811</v>
       </c>
-      <c r="M187">
-        <v>0</v>
-      </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1">
@@ -9208,9 +8800,6 @@
       <c r="L189">
         <v>830</v>
       </c>
-      <c r="M189">
-        <v>0</v>
-      </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1">
@@ -9246,9 +8835,6 @@
       <c r="L190">
         <v>811</v>
       </c>
-      <c r="M190">
-        <v>0</v>
-      </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="1">
@@ -9284,9 +8870,6 @@
       <c r="L191">
         <v>811</v>
       </c>
-      <c r="M191">
-        <v>0</v>
-      </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="1">
@@ -9322,9 +8905,6 @@
       <c r="L192">
         <v>811</v>
       </c>
-      <c r="M192">
-        <v>0</v>
-      </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="1">
@@ -9360,9 +8940,6 @@
       <c r="L193">
         <v>811</v>
       </c>
-      <c r="M193">
-        <v>0</v>
-      </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1">
@@ -9398,9 +8975,6 @@
       <c r="L194">
         <v>811</v>
       </c>
-      <c r="M194">
-        <v>0</v>
-      </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="1">
@@ -9436,9 +9010,6 @@
       <c r="L195">
         <v>811</v>
       </c>
-      <c r="M195">
-        <v>0</v>
-      </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1">
@@ -9474,9 +9045,6 @@
       <c r="L196">
         <v>830</v>
       </c>
-      <c r="M196">
-        <v>0</v>
-      </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1">
@@ -9547,9 +9115,6 @@
       <c r="L198">
         <v>146</v>
       </c>
-      <c r="M198">
-        <v>0</v>
-      </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1">
@@ -9585,9 +9150,6 @@
       <c r="L199">
         <v>811</v>
       </c>
-      <c r="M199">
-        <v>0</v>
-      </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="1">
@@ -9623,9 +9185,6 @@
       <c r="L200">
         <v>811</v>
       </c>
-      <c r="M200">
-        <v>0</v>
-      </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1">
@@ -9661,9 +9220,6 @@
       <c r="L201">
         <v>811</v>
       </c>
-      <c r="M201">
-        <v>0</v>
-      </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1">
@@ -9699,9 +9255,6 @@
       <c r="L202">
         <v>811</v>
       </c>
-      <c r="M202">
-        <v>0</v>
-      </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1">
@@ -9737,9 +9290,6 @@
       <c r="L203">
         <v>811</v>
       </c>
-      <c r="M203">
-        <v>0</v>
-      </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1">
@@ -9775,9 +9325,6 @@
       <c r="L204">
         <v>830</v>
       </c>
-      <c r="M204">
-        <v>0</v>
-      </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="1">
@@ -9883,9 +9430,6 @@
       <c r="L207">
         <v>811</v>
       </c>
-      <c r="M207">
-        <v>0</v>
-      </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="1">
@@ -9991,9 +9535,6 @@
       <c r="L210">
         <v>811</v>
       </c>
-      <c r="M210">
-        <v>0</v>
-      </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1">
@@ -10064,9 +9605,6 @@
       <c r="L212">
         <v>811</v>
       </c>
-      <c r="M212">
-        <v>0</v>
-      </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1">
@@ -10102,9 +9640,6 @@
       <c r="L213">
         <v>811</v>
       </c>
-      <c r="M213">
-        <v>0</v>
-      </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1">
@@ -10140,9 +9675,6 @@
       <c r="L214">
         <v>811</v>
       </c>
-      <c r="M214">
-        <v>0</v>
-      </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1">
@@ -10213,9 +9745,6 @@
       <c r="L216">
         <v>811</v>
       </c>
-      <c r="M216">
-        <v>0</v>
-      </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1">
@@ -10251,9 +9780,6 @@
       <c r="L217">
         <v>811</v>
       </c>
-      <c r="M217">
-        <v>0</v>
-      </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1">
@@ -10289,9 +9815,6 @@
       <c r="L218">
         <v>811</v>
       </c>
-      <c r="M218">
-        <v>0</v>
-      </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1">
@@ -10327,9 +9850,6 @@
       <c r="L219">
         <v>811</v>
       </c>
-      <c r="M219">
-        <v>0</v>
-      </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1">
@@ -10505,9 +10025,6 @@
       <c r="L224">
         <v>811</v>
       </c>
-      <c r="M224">
-        <v>1</v>
-      </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1">
@@ -10543,9 +10060,6 @@
       <c r="L225">
         <v>811</v>
       </c>
-      <c r="M225">
-        <v>0</v>
-      </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1">
@@ -10581,9 +10095,6 @@
       <c r="L226">
         <v>811</v>
       </c>
-      <c r="M226">
-        <v>0</v>
-      </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1">
@@ -10689,9 +10200,6 @@
       <c r="L229">
         <v>811</v>
       </c>
-      <c r="M229">
-        <v>0</v>
-      </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1">
@@ -10762,9 +10270,6 @@
       <c r="L231">
         <v>146</v>
       </c>
-      <c r="M231">
-        <v>0</v>
-      </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1">
@@ -10870,9 +10375,6 @@
       <c r="L234">
         <v>811</v>
       </c>
-      <c r="M234">
-        <v>0</v>
-      </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1">
@@ -10908,9 +10410,6 @@
       <c r="L235">
         <v>811</v>
       </c>
-      <c r="M235">
-        <v>0</v>
-      </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1">
@@ -10981,9 +10480,6 @@
       <c r="L237">
         <v>811</v>
       </c>
-      <c r="M237">
-        <v>0</v>
-      </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1">
@@ -11019,9 +10515,6 @@
       <c r="L238">
         <v>811</v>
       </c>
-      <c r="M238">
-        <v>0</v>
-      </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1">
@@ -11057,9 +10550,6 @@
       <c r="L239">
         <v>811</v>
       </c>
-      <c r="M239">
-        <v>0</v>
-      </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1">
@@ -11130,9 +10620,6 @@
       <c r="L241">
         <v>811</v>
       </c>
-      <c r="M241">
-        <v>0</v>
-      </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1">
@@ -11168,9 +10655,6 @@
       <c r="L242">
         <v>811</v>
       </c>
-      <c r="M242">
-        <v>0</v>
-      </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1">
@@ -11241,9 +10725,6 @@
       <c r="L244">
         <v>811</v>
       </c>
-      <c r="M244">
-        <v>0</v>
-      </c>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1">
@@ -11279,9 +10760,6 @@
       <c r="L245">
         <v>811</v>
       </c>
-      <c r="M245">
-        <v>0</v>
-      </c>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="1">
@@ -11422,9 +10900,6 @@
       <c r="L249">
         <v>811</v>
       </c>
-      <c r="M249">
-        <v>0</v>
-      </c>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="1">
@@ -11460,9 +10935,6 @@
       <c r="L250">
         <v>830</v>
       </c>
-      <c r="M250">
-        <v>0</v>
-      </c>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="1">
@@ -11603,9 +11075,6 @@
       <c r="L254">
         <v>811</v>
       </c>
-      <c r="M254">
-        <v>0</v>
-      </c>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="1">
@@ -11641,9 +11110,6 @@
       <c r="L255">
         <v>811</v>
       </c>
-      <c r="M255">
-        <v>0</v>
-      </c>
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="1">
@@ -11749,9 +11215,6 @@
       <c r="L258">
         <v>146</v>
       </c>
-      <c r="M258">
-        <v>0</v>
-      </c>
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="1">
@@ -11962,9 +11425,6 @@
       <c r="L264">
         <v>811</v>
       </c>
-      <c r="M264">
-        <v>0</v>
-      </c>
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="1">
@@ -12035,9 +11495,6 @@
       <c r="L266">
         <v>811</v>
       </c>
-      <c r="M266">
-        <v>0</v>
-      </c>
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="1">
@@ -12073,9 +11530,6 @@
       <c r="L267">
         <v>811</v>
       </c>
-      <c r="M267">
-        <v>0</v>
-      </c>
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="1">
@@ -12111,9 +11565,6 @@
       <c r="L268">
         <v>811</v>
       </c>
-      <c r="M268">
-        <v>0</v>
-      </c>
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="1">
@@ -12149,9 +11600,6 @@
       <c r="L269">
         <v>811</v>
       </c>
-      <c r="M269">
-        <v>0</v>
-      </c>
     </row>
     <row r="270" spans="1:13">
       <c r="A270" s="1">
@@ -12187,9 +11635,6 @@
       <c r="L270">
         <v>811</v>
       </c>
-      <c r="M270">
-        <v>0</v>
-      </c>
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="1">
@@ -12225,9 +11670,6 @@
       <c r="L271">
         <v>811</v>
       </c>
-      <c r="M271">
-        <v>0</v>
-      </c>
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="1">
@@ -12263,9 +11705,6 @@
       <c r="L272">
         <v>811</v>
       </c>
-      <c r="M272">
-        <v>0</v>
-      </c>
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="1">
@@ -12336,9 +11775,6 @@
       <c r="L274">
         <v>811</v>
       </c>
-      <c r="M274">
-        <v>0</v>
-      </c>
     </row>
     <row r="275" spans="1:13">
       <c r="A275" s="1">
@@ -12374,9 +11810,6 @@
       <c r="L275">
         <v>812</v>
       </c>
-      <c r="M275">
-        <v>0</v>
-      </c>
     </row>
     <row r="276" spans="1:13">
       <c r="A276" s="1">
@@ -12412,9 +11845,6 @@
       <c r="L276">
         <v>811</v>
       </c>
-      <c r="M276">
-        <v>0</v>
-      </c>
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="1">
@@ -12450,9 +11880,6 @@
       <c r="L277">
         <v>811</v>
       </c>
-      <c r="M277">
-        <v>0</v>
-      </c>
     </row>
     <row r="278" spans="1:13">
       <c r="A278" s="1">
@@ -12488,9 +11915,6 @@
       <c r="L278">
         <v>811</v>
       </c>
-      <c r="M278">
-        <v>0</v>
-      </c>
     </row>
     <row r="279" spans="1:13">
       <c r="A279" s="1">
@@ -12526,9 +11950,6 @@
       <c r="L279">
         <v>811</v>
       </c>
-      <c r="M279">
-        <v>0</v>
-      </c>
     </row>
     <row r="280" spans="1:13">
       <c r="A280" s="1">
@@ -12599,9 +12020,6 @@
       <c r="L281">
         <v>811</v>
       </c>
-      <c r="M281">
-        <v>0</v>
-      </c>
     </row>
     <row r="282" spans="1:13">
       <c r="A282" s="1">
@@ -12672,9 +12090,6 @@
       <c r="L283">
         <v>811</v>
       </c>
-      <c r="M283">
-        <v>0</v>
-      </c>
     </row>
     <row r="284" spans="1:13">
       <c r="A284" s="1">
@@ -12745,9 +12160,6 @@
       <c r="L285">
         <v>811</v>
       </c>
-      <c r="M285">
-        <v>0</v>
-      </c>
     </row>
     <row r="286" spans="1:13">
       <c r="A286" s="1">
@@ -12783,9 +12195,6 @@
       <c r="L286">
         <v>811</v>
       </c>
-      <c r="M286">
-        <v>0</v>
-      </c>
     </row>
     <row r="287" spans="1:13">
       <c r="A287" s="1">
@@ -12821,9 +12230,6 @@
       <c r="L287">
         <v>811</v>
       </c>
-      <c r="M287">
-        <v>0</v>
-      </c>
     </row>
     <row r="288" spans="1:13">
       <c r="A288" s="1">
@@ -12859,9 +12265,6 @@
       <c r="L288">
         <v>811</v>
       </c>
-      <c r="M288">
-        <v>0</v>
-      </c>
     </row>
     <row r="289" spans="1:13">
       <c r="A289" s="1">
@@ -12897,9 +12300,6 @@
       <c r="L289">
         <v>811</v>
       </c>
-      <c r="M289">
-        <v>0</v>
-      </c>
     </row>
     <row r="290" spans="1:13">
       <c r="A290" s="1">
@@ -12935,9 +12335,6 @@
       <c r="L290">
         <v>811</v>
       </c>
-      <c r="M290">
-        <v>0</v>
-      </c>
     </row>
     <row r="291" spans="1:13">
       <c r="A291" s="1">
@@ -12973,9 +12370,6 @@
       <c r="L291">
         <v>811</v>
       </c>
-      <c r="M291">
-        <v>0</v>
-      </c>
     </row>
     <row r="292" spans="1:13">
       <c r="A292" s="1">
@@ -13046,9 +12440,6 @@
       <c r="L293">
         <v>811</v>
       </c>
-      <c r="M293">
-        <v>0</v>
-      </c>
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="1">
@@ -13084,9 +12475,6 @@
       <c r="L294">
         <v>811</v>
       </c>
-      <c r="M294">
-        <v>0</v>
-      </c>
     </row>
     <row r="295" spans="1:13">
       <c r="A295" s="1">
@@ -13122,9 +12510,6 @@
       <c r="L295">
         <v>811</v>
       </c>
-      <c r="M295">
-        <v>0</v>
-      </c>
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="1">
@@ -13160,9 +12545,6 @@
       <c r="L296">
         <v>811</v>
       </c>
-      <c r="M296">
-        <v>0</v>
-      </c>
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="1">
@@ -13198,9 +12580,6 @@
       <c r="L297">
         <v>811</v>
       </c>
-      <c r="M297">
-        <v>0</v>
-      </c>
     </row>
     <row r="298" spans="1:13">
       <c r="A298" s="1">
@@ -13236,9 +12615,6 @@
       <c r="L298">
         <v>811</v>
       </c>
-      <c r="M298">
-        <v>0</v>
-      </c>
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="1">
@@ -13274,9 +12650,6 @@
       <c r="L299">
         <v>146</v>
       </c>
-      <c r="M299">
-        <v>0</v>
-      </c>
     </row>
     <row r="300" spans="1:13">
       <c r="A300" s="1">
@@ -13312,9 +12685,6 @@
       <c r="L300">
         <v>811</v>
       </c>
-      <c r="M300">
-        <v>0</v>
-      </c>
     </row>
     <row r="301" spans="1:13">
       <c r="A301" s="1">
@@ -13350,9 +12720,6 @@
       <c r="L301">
         <v>811</v>
       </c>
-      <c r="M301">
-        <v>0</v>
-      </c>
     </row>
     <row r="302" spans="1:13">
       <c r="A302" s="1">
@@ -13458,9 +12825,6 @@
       <c r="L304">
         <v>811</v>
       </c>
-      <c r="M304">
-        <v>0</v>
-      </c>
     </row>
     <row r="305" spans="1:13">
       <c r="A305" s="1">
@@ -13496,9 +12860,6 @@
       <c r="L305">
         <v>811</v>
       </c>
-      <c r="M305">
-        <v>0</v>
-      </c>
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="1">
@@ -13534,9 +12895,6 @@
       <c r="L306">
         <v>811</v>
       </c>
-      <c r="M306">
-        <v>0</v>
-      </c>
     </row>
     <row r="307" spans="1:13">
       <c r="A307" s="1">
@@ -13607,9 +12965,6 @@
       <c r="L308">
         <v>811</v>
       </c>
-      <c r="M308">
-        <v>0</v>
-      </c>
     </row>
     <row r="309" spans="1:13">
       <c r="A309" s="1">
@@ -13715,9 +13070,6 @@
       <c r="L311">
         <v>811</v>
       </c>
-      <c r="M311">
-        <v>0</v>
-      </c>
     </row>
     <row r="312" spans="1:13">
       <c r="A312" s="1">
@@ -13753,9 +13105,6 @@
       <c r="L312">
         <v>811</v>
       </c>
-      <c r="M312">
-        <v>0</v>
-      </c>
     </row>
     <row r="313" spans="1:13">
       <c r="A313" s="1">
@@ -13791,9 +13140,6 @@
       <c r="L313">
         <v>811</v>
       </c>
-      <c r="M313">
-        <v>0</v>
-      </c>
     </row>
     <row r="314" spans="1:13">
       <c r="A314" s="1">
@@ -13829,9 +13175,6 @@
       <c r="L314">
         <v>811</v>
       </c>
-      <c r="M314">
-        <v>0</v>
-      </c>
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="1">
@@ -13867,9 +13210,6 @@
       <c r="L315">
         <v>811</v>
       </c>
-      <c r="M315">
-        <v>0</v>
-      </c>
     </row>
     <row r="316" spans="1:13">
       <c r="A316" s="1">
@@ -13905,9 +13245,6 @@
       <c r="L316">
         <v>811</v>
       </c>
-      <c r="M316">
-        <v>0</v>
-      </c>
     </row>
     <row r="317" spans="1:13">
       <c r="A317" s="1">
@@ -13978,9 +13315,6 @@
       <c r="L318">
         <v>811</v>
       </c>
-      <c r="M318">
-        <v>0</v>
-      </c>
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="1">
@@ -14016,9 +13350,6 @@
       <c r="L319">
         <v>811</v>
       </c>
-      <c r="M319">
-        <v>0</v>
-      </c>
     </row>
     <row r="320" spans="1:13">
       <c r="A320" s="1">
@@ -14054,9 +13385,6 @@
       <c r="L320">
         <v>811</v>
       </c>
-      <c r="M320">
-        <v>0</v>
-      </c>
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="1">
@@ -14092,9 +13420,6 @@
       <c r="L321">
         <v>811</v>
       </c>
-      <c r="M321">
-        <v>0</v>
-      </c>
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="1">
@@ -14130,9 +13455,6 @@
       <c r="L322">
         <v>811</v>
       </c>
-      <c r="M322">
-        <v>0</v>
-      </c>
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="1">
@@ -14168,9 +13490,6 @@
       <c r="L323">
         <v>811</v>
       </c>
-      <c r="M323">
-        <v>0</v>
-      </c>
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="1">
@@ -14346,9 +13665,6 @@
       <c r="L328">
         <v>811</v>
       </c>
-      <c r="M328">
-        <v>0</v>
-      </c>
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="1">
@@ -14384,9 +13700,6 @@
       <c r="L329">
         <v>811</v>
       </c>
-      <c r="M329">
-        <v>0</v>
-      </c>
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="1">
@@ -14422,9 +13735,6 @@
       <c r="L330">
         <v>830</v>
       </c>
-      <c r="M330">
-        <v>0</v>
-      </c>
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="1">
@@ -14495,9 +13805,6 @@
       <c r="L332">
         <v>811</v>
       </c>
-      <c r="M332">
-        <v>0</v>
-      </c>
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="1">
@@ -14533,9 +13840,6 @@
       <c r="L333">
         <v>811</v>
       </c>
-      <c r="M333">
-        <v>0</v>
-      </c>
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="1">
@@ -14571,9 +13875,6 @@
       <c r="L334">
         <v>811</v>
       </c>
-      <c r="M334">
-        <v>0</v>
-      </c>
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="1">
@@ -14609,9 +13910,6 @@
       <c r="L335">
         <v>811</v>
       </c>
-      <c r="M335">
-        <v>0</v>
-      </c>
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="1">
@@ -14647,9 +13945,6 @@
       <c r="L336">
         <v>811</v>
       </c>
-      <c r="M336">
-        <v>0</v>
-      </c>
     </row>
     <row r="337" spans="1:13">
       <c r="A337" s="1">
@@ -14685,9 +13980,6 @@
       <c r="L337">
         <v>811</v>
       </c>
-      <c r="M337">
-        <v>0</v>
-      </c>
     </row>
     <row r="338" spans="1:13">
       <c r="A338" s="1">
@@ -14758,9 +14050,6 @@
       <c r="L339">
         <v>811</v>
       </c>
-      <c r="M339">
-        <v>0</v>
-      </c>
     </row>
     <row r="340" spans="1:13">
       <c r="A340" s="1">
@@ -14796,9 +14085,6 @@
       <c r="L340">
         <v>146</v>
       </c>
-      <c r="M340">
-        <v>0</v>
-      </c>
     </row>
     <row r="341" spans="1:13">
       <c r="A341" s="1">
@@ -14834,9 +14120,6 @@
       <c r="L341">
         <v>811</v>
       </c>
-      <c r="M341">
-        <v>0</v>
-      </c>
     </row>
     <row r="342" spans="1:13">
       <c r="A342" s="1">
@@ -14872,9 +14155,6 @@
       <c r="L342">
         <v>811</v>
       </c>
-      <c r="M342">
-        <v>1</v>
-      </c>
     </row>
     <row r="343" spans="1:13">
       <c r="A343" s="1">
@@ -14910,9 +14190,6 @@
       <c r="L343">
         <v>811</v>
       </c>
-      <c r="M343">
-        <v>1</v>
-      </c>
     </row>
     <row r="344" spans="1:13">
       <c r="A344" s="1">
@@ -14948,9 +14225,6 @@
       <c r="L344">
         <v>811</v>
       </c>
-      <c r="M344">
-        <v>0</v>
-      </c>
     </row>
     <row r="345" spans="1:13">
       <c r="A345" s="1">
@@ -14986,9 +14260,6 @@
       <c r="L345">
         <v>811</v>
       </c>
-      <c r="M345">
-        <v>0</v>
-      </c>
     </row>
     <row r="346" spans="1:13">
       <c r="A346" s="1">
@@ -15024,9 +14295,6 @@
       <c r="L346">
         <v>811</v>
       </c>
-      <c r="M346">
-        <v>0</v>
-      </c>
     </row>
     <row r="347" spans="1:13">
       <c r="A347" s="1">
@@ -15062,9 +14330,6 @@
       <c r="L347">
         <v>811</v>
       </c>
-      <c r="M347">
-        <v>0</v>
-      </c>
     </row>
     <row r="348" spans="1:13">
       <c r="A348" s="1">
@@ -15100,9 +14365,6 @@
       <c r="L348">
         <v>811</v>
       </c>
-      <c r="M348">
-        <v>0</v>
-      </c>
     </row>
     <row r="349" spans="1:13">
       <c r="A349" s="1">
@@ -15138,9 +14400,6 @@
       <c r="L349">
         <v>811</v>
       </c>
-      <c r="M349">
-        <v>0</v>
-      </c>
     </row>
     <row r="350" spans="1:13">
       <c r="A350" s="1">
@@ -15176,9 +14435,6 @@
       <c r="L350">
         <v>811</v>
       </c>
-      <c r="M350">
-        <v>0</v>
-      </c>
     </row>
     <row r="351" spans="1:13">
       <c r="A351" s="1">
@@ -15214,9 +14470,6 @@
       <c r="L351">
         <v>812</v>
       </c>
-      <c r="M351">
-        <v>0</v>
-      </c>
     </row>
     <row r="352" spans="1:13">
       <c r="A352" s="1">
@@ -15252,9 +14505,6 @@
       <c r="L352">
         <v>146</v>
       </c>
-      <c r="M352">
-        <v>0</v>
-      </c>
     </row>
     <row r="353" spans="1:13">
       <c r="A353" s="1">
@@ -15290,9 +14540,6 @@
       <c r="L353">
         <v>811</v>
       </c>
-      <c r="M353">
-        <v>0</v>
-      </c>
     </row>
     <row r="354" spans="1:13">
       <c r="A354" s="1">
@@ -15328,9 +14575,6 @@
       <c r="L354">
         <v>811</v>
       </c>
-      <c r="M354">
-        <v>0</v>
-      </c>
     </row>
     <row r="355" spans="1:13">
       <c r="A355" s="1">
@@ -15366,9 +14610,6 @@
       <c r="L355">
         <v>811</v>
       </c>
-      <c r="M355">
-        <v>0</v>
-      </c>
     </row>
     <row r="356" spans="1:13">
       <c r="A356" s="1">
@@ -15404,9 +14645,6 @@
       <c r="L356">
         <v>811</v>
       </c>
-      <c r="M356">
-        <v>0</v>
-      </c>
     </row>
     <row r="357" spans="1:13">
       <c r="A357" s="1">
@@ -15442,9 +14680,6 @@
       <c r="L357">
         <v>811</v>
       </c>
-      <c r="M357">
-        <v>0</v>
-      </c>
     </row>
     <row r="358" spans="1:13">
       <c r="A358" s="1">
@@ -15480,9 +14715,6 @@
       <c r="L358">
         <v>811</v>
       </c>
-      <c r="M358">
-        <v>0</v>
-      </c>
     </row>
     <row r="359" spans="1:13">
       <c r="A359" s="1">
@@ -15518,9 +14750,6 @@
       <c r="L359">
         <v>811</v>
       </c>
-      <c r="M359">
-        <v>0</v>
-      </c>
     </row>
     <row r="360" spans="1:13">
       <c r="A360" s="1">
@@ -15591,9 +14820,6 @@
       <c r="L361">
         <v>811</v>
       </c>
-      <c r="M361">
-        <v>0</v>
-      </c>
     </row>
     <row r="362" spans="1:13">
       <c r="A362" s="1">
@@ -15629,9 +14855,6 @@
       <c r="L362">
         <v>811</v>
       </c>
-      <c r="M362">
-        <v>0</v>
-      </c>
     </row>
     <row r="363" spans="1:13">
       <c r="A363" s="1">
@@ -15667,9 +14890,6 @@
       <c r="L363">
         <v>811</v>
       </c>
-      <c r="M363">
-        <v>0</v>
-      </c>
     </row>
     <row r="364" spans="1:13">
       <c r="A364" s="1">
@@ -15705,9 +14925,6 @@
       <c r="L364">
         <v>811</v>
       </c>
-      <c r="M364">
-        <v>0</v>
-      </c>
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="1">
@@ -15743,9 +14960,6 @@
       <c r="L365">
         <v>811</v>
       </c>
-      <c r="M365">
-        <v>0</v>
-      </c>
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="1">
@@ -15781,9 +14995,6 @@
       <c r="L366">
         <v>811</v>
       </c>
-      <c r="M366">
-        <v>0</v>
-      </c>
     </row>
     <row r="367" spans="1:13">
       <c r="A367" s="1">
@@ -15819,9 +15030,6 @@
       <c r="L367">
         <v>811</v>
       </c>
-      <c r="M367">
-        <v>0</v>
-      </c>
     </row>
     <row r="368" spans="1:13">
       <c r="A368" s="1">
@@ -15857,11 +15065,8 @@
       <c r="L368">
         <v>811</v>
       </c>
-      <c r="M368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13">
+    </row>
+    <row r="369" spans="1:12">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -15895,11 +15100,8 @@
       <c r="L369">
         <v>811</v>
       </c>
-      <c r="M369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13">
+    </row>
+    <row r="370" spans="1:12">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -15933,11 +15135,8 @@
       <c r="L370">
         <v>811</v>
       </c>
-      <c r="M370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13">
+    </row>
+    <row r="371" spans="1:12">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -15971,11 +15170,8 @@
       <c r="L371">
         <v>811</v>
       </c>
-      <c r="M371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13">
+    </row>
+    <row r="372" spans="1:12">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -16009,11 +15205,8 @@
       <c r="L372">
         <v>811</v>
       </c>
-      <c r="M372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13">
+    </row>
+    <row r="373" spans="1:12">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -16047,11 +15240,8 @@
       <c r="L373">
         <v>811</v>
       </c>
-      <c r="M373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13">
+    </row>
+    <row r="374" spans="1:12">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -16085,11 +15275,8 @@
       <c r="L374">
         <v>830</v>
       </c>
-      <c r="M374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13">
+    </row>
+    <row r="375" spans="1:12">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -16123,11 +15310,8 @@
       <c r="L375">
         <v>811</v>
       </c>
-      <c r="M375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13">
+    </row>
+    <row r="376" spans="1:12">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -16161,11 +15345,8 @@
       <c r="L376">
         <v>811</v>
       </c>
-      <c r="M376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13">
+    </row>
+    <row r="377" spans="1:12">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -16199,11 +15380,8 @@
       <c r="L377">
         <v>811</v>
       </c>
-      <c r="M377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13">
+    </row>
+    <row r="378" spans="1:12">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -16237,11 +15415,8 @@
       <c r="L378">
         <v>811</v>
       </c>
-      <c r="M378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13">
+    </row>
+    <row r="379" spans="1:12">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -16275,11 +15450,8 @@
       <c r="L379">
         <v>811</v>
       </c>
-      <c r="M379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13">
+    </row>
+    <row r="380" spans="1:12">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -16313,11 +15485,8 @@
       <c r="L380">
         <v>811</v>
       </c>
-      <c r="M380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13">
+    </row>
+    <row r="381" spans="1:12">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -16351,11 +15520,8 @@
       <c r="L381">
         <v>811</v>
       </c>
-      <c r="M381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13">
+    </row>
+    <row r="382" spans="1:12">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -16389,11 +15555,8 @@
       <c r="L382">
         <v>811</v>
       </c>
-      <c r="M382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13">
+    </row>
+    <row r="383" spans="1:12">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -16427,11 +15590,8 @@
       <c r="L383">
         <v>811</v>
       </c>
-      <c r="M383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13">
+    </row>
+    <row r="384" spans="1:12">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -16465,11 +15625,8 @@
       <c r="L384">
         <v>811</v>
       </c>
-      <c r="M384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13">
+    </row>
+    <row r="385" spans="1:12">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -16503,11 +15660,8 @@
       <c r="L385">
         <v>811</v>
       </c>
-      <c r="M385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13">
+    </row>
+    <row r="386" spans="1:12">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -16541,11 +15695,8 @@
       <c r="L386">
         <v>811</v>
       </c>
-      <c r="M386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13">
+    </row>
+    <row r="387" spans="1:12">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -16579,11 +15730,8 @@
       <c r="L387">
         <v>811</v>
       </c>
-      <c r="M387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13">
+    </row>
+    <row r="388" spans="1:12">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -16617,11 +15765,8 @@
       <c r="L388">
         <v>811</v>
       </c>
-      <c r="M388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13">
+    </row>
+    <row r="389" spans="1:12">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -16655,11 +15800,8 @@
       <c r="L389">
         <v>811</v>
       </c>
-      <c r="M389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13">
+    </row>
+    <row r="390" spans="1:12">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -16693,11 +15835,8 @@
       <c r="L390">
         <v>811</v>
       </c>
-      <c r="M390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13">
+    </row>
+    <row r="391" spans="1:12">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -16731,11 +15870,8 @@
       <c r="L391">
         <v>811</v>
       </c>
-      <c r="M391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13">
+    </row>
+    <row r="392" spans="1:12">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -16769,11 +15905,8 @@
       <c r="L392">
         <v>811</v>
       </c>
-      <c r="M392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13">
+    </row>
+    <row r="393" spans="1:12">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -16807,11 +15940,8 @@
       <c r="L393">
         <v>811</v>
       </c>
-      <c r="M393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13">
+    </row>
+    <row r="394" spans="1:12">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -16845,11 +15975,8 @@
       <c r="L394">
         <v>811</v>
       </c>
-      <c r="M394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13">
+    </row>
+    <row r="395" spans="1:12">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -16883,11 +16010,8 @@
       <c r="L395">
         <v>811</v>
       </c>
-      <c r="M395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13">
+    </row>
+    <row r="396" spans="1:12">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -16921,11 +16045,8 @@
       <c r="L396">
         <v>811</v>
       </c>
-      <c r="M396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13">
+    </row>
+    <row r="397" spans="1:12">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -16959,11 +16080,8 @@
       <c r="L397">
         <v>811</v>
       </c>
-      <c r="M397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13">
+    </row>
+    <row r="398" spans="1:12">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -16997,11 +16115,8 @@
       <c r="L398">
         <v>811</v>
       </c>
-      <c r="M398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13">
+    </row>
+    <row r="399" spans="1:12">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -17035,11 +16150,8 @@
       <c r="L399">
         <v>811</v>
       </c>
-      <c r="M399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13">
+    </row>
+    <row r="400" spans="1:12">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -17073,11 +16185,8 @@
       <c r="L400">
         <v>811</v>
       </c>
-      <c r="M400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13">
+    </row>
+    <row r="401" spans="1:12">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -17111,11 +16220,8 @@
       <c r="L401">
         <v>813</v>
       </c>
-      <c r="M401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13">
+    </row>
+    <row r="402" spans="1:12">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -17149,11 +16255,8 @@
       <c r="L402">
         <v>811</v>
       </c>
-      <c r="M402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13">
+    </row>
+    <row r="403" spans="1:12">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -17187,11 +16290,8 @@
       <c r="L403">
         <v>811</v>
       </c>
-      <c r="M403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13">
+    </row>
+    <row r="404" spans="1:12">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -17225,11 +16325,8 @@
       <c r="L404">
         <v>830</v>
       </c>
-      <c r="M404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13">
+    </row>
+    <row r="405" spans="1:12">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -17263,11 +16360,8 @@
       <c r="L405">
         <v>811</v>
       </c>
-      <c r="M405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13">
+    </row>
+    <row r="406" spans="1:12">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -17301,11 +16395,8 @@
       <c r="L406">
         <v>811</v>
       </c>
-      <c r="M406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13">
+    </row>
+    <row r="407" spans="1:12">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -17339,11 +16430,8 @@
       <c r="L407">
         <v>830</v>
       </c>
-      <c r="M407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13">
+    </row>
+    <row r="408" spans="1:12">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -17377,11 +16465,8 @@
       <c r="L408">
         <v>811</v>
       </c>
-      <c r="M408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13">
+    </row>
+    <row r="409" spans="1:12">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -17415,11 +16500,8 @@
       <c r="L409">
         <v>830</v>
       </c>
-      <c r="M409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:13">
+    </row>
+    <row r="410" spans="1:12">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -17453,11 +16535,8 @@
       <c r="L410">
         <v>811</v>
       </c>
-      <c r="M410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13">
+    </row>
+    <row r="411" spans="1:12">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -17491,11 +16570,8 @@
       <c r="L411">
         <v>146</v>
       </c>
-      <c r="M411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13">
+    </row>
+    <row r="412" spans="1:12">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -17529,11 +16605,8 @@
       <c r="L412">
         <v>811</v>
       </c>
-      <c r="M412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13">
+    </row>
+    <row r="413" spans="1:12">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -17567,11 +16640,8 @@
       <c r="L413">
         <v>811</v>
       </c>
-      <c r="M413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13">
+    </row>
+    <row r="414" spans="1:12">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -17605,11 +16675,8 @@
       <c r="L414">
         <v>811</v>
       </c>
-      <c r="M414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13">
+    </row>
+    <row r="415" spans="1:12">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -17643,11 +16710,8 @@
       <c r="L415">
         <v>830</v>
       </c>
-      <c r="M415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13">
+    </row>
+    <row r="416" spans="1:12">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -17681,11 +16745,8 @@
       <c r="L416">
         <v>811</v>
       </c>
-      <c r="M416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13">
+    </row>
+    <row r="417" spans="1:12">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -17719,11 +16780,8 @@
       <c r="L417">
         <v>811</v>
       </c>
-      <c r="M417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13">
+    </row>
+    <row r="418" spans="1:12">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -17757,11 +16815,8 @@
       <c r="L418">
         <v>811</v>
       </c>
-      <c r="M418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13">
+    </row>
+    <row r="419" spans="1:12">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17795,11 +16850,8 @@
       <c r="L419">
         <v>146</v>
       </c>
-      <c r="M419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13">
+    </row>
+    <row r="420" spans="1:12">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17833,11 +16885,8 @@
       <c r="L420">
         <v>811</v>
       </c>
-      <c r="M420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13">
+    </row>
+    <row r="421" spans="1:12">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -17871,11 +16920,8 @@
       <c r="L421">
         <v>811</v>
       </c>
-      <c r="M421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13">
+    </row>
+    <row r="422" spans="1:12">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -17909,11 +16955,8 @@
       <c r="L422">
         <v>811</v>
       </c>
-      <c r="M422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13">
+    </row>
+    <row r="423" spans="1:12">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -17947,11 +16990,8 @@
       <c r="L423">
         <v>811</v>
       </c>
-      <c r="M423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13">
+    </row>
+    <row r="424" spans="1:12">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -17985,11 +17025,8 @@
       <c r="L424">
         <v>811</v>
       </c>
-      <c r="M424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13">
+    </row>
+    <row r="425" spans="1:12">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -18023,11 +17060,8 @@
       <c r="L425">
         <v>811</v>
       </c>
-      <c r="M425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13">
+    </row>
+    <row r="426" spans="1:12">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -18061,11 +17095,8 @@
       <c r="L426">
         <v>811</v>
       </c>
-      <c r="M426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13">
+    </row>
+    <row r="427" spans="1:12">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -18099,11 +17130,8 @@
       <c r="L427">
         <v>811</v>
       </c>
-      <c r="M427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13">
+    </row>
+    <row r="428" spans="1:12">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -18137,11 +17165,8 @@
       <c r="L428">
         <v>811</v>
       </c>
-      <c r="M428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13">
+    </row>
+    <row r="429" spans="1:12">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -18175,11 +17200,8 @@
       <c r="L429">
         <v>811</v>
       </c>
-      <c r="M429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13">
+    </row>
+    <row r="430" spans="1:12">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -18213,11 +17235,8 @@
       <c r="L430">
         <v>811</v>
       </c>
-      <c r="M430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13">
+    </row>
+    <row r="431" spans="1:12">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -18251,11 +17270,8 @@
       <c r="L431">
         <v>811</v>
       </c>
-      <c r="M431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13">
+    </row>
+    <row r="432" spans="1:12">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -18289,11 +17305,8 @@
       <c r="L432">
         <v>811</v>
       </c>
-      <c r="M432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13">
+    </row>
+    <row r="433" spans="1:12">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -18327,11 +17340,8 @@
       <c r="L433">
         <v>830</v>
       </c>
-      <c r="M433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13">
+    </row>
+    <row r="434" spans="1:12">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -18365,11 +17375,8 @@
       <c r="L434">
         <v>811</v>
       </c>
-      <c r="M434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13">
+    </row>
+    <row r="435" spans="1:12">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -18403,11 +17410,8 @@
       <c r="L435">
         <v>811</v>
       </c>
-      <c r="M435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13">
+    </row>
+    <row r="436" spans="1:12">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -18441,11 +17445,8 @@
       <c r="L436">
         <v>811</v>
       </c>
-      <c r="M436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13">
+    </row>
+    <row r="437" spans="1:12">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -18479,11 +17480,8 @@
       <c r="L437">
         <v>811</v>
       </c>
-      <c r="M437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13">
+    </row>
+    <row r="438" spans="1:12">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -18517,11 +17515,8 @@
       <c r="L438">
         <v>830</v>
       </c>
-      <c r="M438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13">
+    </row>
+    <row r="439" spans="1:12">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -18555,11 +17550,8 @@
       <c r="L439">
         <v>811</v>
       </c>
-      <c r="M439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13">
+    </row>
+    <row r="440" spans="1:12">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -18593,11 +17585,8 @@
       <c r="L440">
         <v>811</v>
       </c>
-      <c r="M440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13">
+    </row>
+    <row r="441" spans="1:12">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -18631,11 +17620,8 @@
       <c r="L441">
         <v>811</v>
       </c>
-      <c r="M441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13">
+    </row>
+    <row r="442" spans="1:12">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -18669,11 +17655,8 @@
       <c r="L442">
         <v>811</v>
       </c>
-      <c r="M442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13">
+    </row>
+    <row r="443" spans="1:12">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -18707,11 +17690,8 @@
       <c r="L443">
         <v>811</v>
       </c>
-      <c r="M443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13">
+    </row>
+    <row r="444" spans="1:12">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -18745,11 +17725,8 @@
       <c r="L444">
         <v>146</v>
       </c>
-      <c r="M444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13">
+    </row>
+    <row r="445" spans="1:12">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -18783,11 +17760,8 @@
       <c r="L445">
         <v>811</v>
       </c>
-      <c r="M445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13">
+    </row>
+    <row r="446" spans="1:12">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -18821,11 +17795,8 @@
       <c r="L446">
         <v>811</v>
       </c>
-      <c r="M446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13">
+    </row>
+    <row r="447" spans="1:12">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -18859,11 +17830,8 @@
       <c r="L447">
         <v>811</v>
       </c>
-      <c r="M447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13">
+    </row>
+    <row r="448" spans="1:12">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -18897,11 +17865,8 @@
       <c r="L448">
         <v>811</v>
       </c>
-      <c r="M448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13">
+    </row>
+    <row r="449" spans="1:12">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -18934,9 +17899,6 @@
       </c>
       <c r="L449">
         <v>811</v>
-      </c>
-      <c r="M449">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
